--- a/data/regression_name_list1158.xlsx
+++ b/data/regression_name_list1158.xlsx
@@ -469,7 +469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4740,7 +4740,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
